--- a/data/long_bre/P24_8-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_8-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,81</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>140,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>-5,92%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>180,29%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>74,56%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 14,96</t>
+          <t>-10,0; 6,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 17,48</t>
+          <t>3,12; 20,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 9,59</t>
+          <t>-3,48; 9,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 244,79</t>
+          <t>-1,34; 15,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 381,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 139,48</t>
+          <t>-52,35; 87,95</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21,88; 637,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-24,99; 131,42</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-17,98; 299,33</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,53</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,35</t>
+          <t>-19,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,14</t>
+          <t>-13,33</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,29%</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-13,9%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,45%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-16,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-6,45%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,29; -9,26</t>
+          <t>-22,47; 1,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -9,66</t>
+          <t>-30,06; -8,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,37; -2,96</t>
+          <t>-21,2; -4,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,45; -11,22</t>
+          <t>-18,65; 7,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,45; -11,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,58; -3,93</t>
+          <t>-26,0; 2,11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-33,57; -10,54</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; -6,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-23,73; 11,5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,06</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,55</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228,7%</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>160,77%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>243,58%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>118,53%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>102,08%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-8,97%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 15,46</t>
+          <t>4,24; 21,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 16,4</t>
+          <t>0,22; 16,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 15,05</t>
+          <t>3,53; 16,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>65,82; 693,21</t>
+          <t>-12,54; 8,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,85; 509,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,46; 225,4</t>
+          <t>30,6; 1007,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 466,58</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25,53; 232,9</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-48,25; 73,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 12,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 121,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,71; 167,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 81,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,54</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,44</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>49,77%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>93,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37,53%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -5,75</t>
+          <t>-4,06; 16,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,28; -1,95</t>
+          <t>3,06; 12,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,39; -3,3</t>
+          <t>-1,86; 7,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-23,9; -7,77</t>
+          <t>-1,32; 11,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,36; -2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -4,45</t>
+          <t>-20,08; 166,59</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24,8; 216,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 77,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 111,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>-14,66</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>-11,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>-19,07%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-11,84%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,51%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-15,87%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,66</t>
+          <t>-23,64; -3,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 6,89</t>
+          <t>-16,18; -2,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,61</t>
+          <t>-14,96; -3,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,7; 163,47</t>
+          <t>-18,94; -1,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 72,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,95; 115,54</t>
+          <t>-28,92; -5,48</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-19,48; -2,97</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-18,87; -4,34</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; -1,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>92,98%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>55,17%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38,1%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 16,53</t>
+          <t>1,29; 11,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 8,94</t>
+          <t>-3,92; 7,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 10,47</t>
+          <t>2,14; 10,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,79; 166,82</t>
+          <t>-3,3; 12,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 100,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 104,46</t>
+          <t>11,01; 229,39</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-27,49; 78,11</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 119,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-20,61; 113,96</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-9,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,98%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,78; -1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,72; -0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,95; -4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,64; -2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,93; -0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,91; -6,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>78,75%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30,28%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>42,14%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>77,42%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 3,17</t>
+          <t>3,33; 18,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 10,59</t>
+          <t>-2,4; 9,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 11,18</t>
+          <t>-1,36; 10,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-43,96; 34,57</t>
+          <t>2,29; 14,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 95,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,89; 143,59</t>
+          <t>19,79; 205,34</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; 106,09</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 107,61</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 177,82</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>-12,04</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>-13,65</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>-13,9%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-12,51%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-15,65%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-17,12%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3,68; 11,39</t>
+          <t>-19,84; -1,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,1; 9,46</t>
+          <t>-17,34; -0,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,4</t>
+          <t>-18,63; -4,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,47; 110,69</t>
+          <t>-20,46; -5,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>27,79; 124,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>3,81; 64,61</t>
+          <t>-25,13; -2,05</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-22,6; -0,91</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-22,73; -6,25</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-24,85; -7,78</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-12,96</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-10,6</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,53</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-16,26%</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-13,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>-3,23%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>39,35%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>65,24%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>54,64%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,59; -7,14</t>
+          <t>-6,98; 5,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,66; -6,56</t>
+          <t>-2,15; 12,79</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -6,31</t>
+          <t>2,01; 11,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,58; -9,51</t>
+          <t>0,3; 10,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -8,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -8,38</t>
+          <t>-46,43; 69,1</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 112,69</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 147,38</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 140,43</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>65,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,82; 7,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,39; 106,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,42; 79,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>33,72; 107,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>9,05</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>88,83%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>41,35%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 13,84</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 10,75</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>31,67; 172,61</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-22,66; 212,61</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-13,2</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-8,75</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-16,31%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-10,62%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; -6,57</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-18,12; 0,41</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-23,59; -8,51</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-20,99; 0,7</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>46,81%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>57,75%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 8,88</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 12,05</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 134,47</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; 210,61</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>8,09</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>63,31%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>69,57%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>52,63%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>3,65; 11,61</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 9,88</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 6,93</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 10,07</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>21,85; 109,55</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>26,51; 126,7</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 67,74</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>11,32; 94,54</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-12,97</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-10,82</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-10,85</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-10,29</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-16,49%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-13,57%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-13,96%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-13,9%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-17,33; -8,21</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-15,23; -6,52</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; -7,1</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-14,93; -4,16</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-21,71; -11,06</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-18,66; -8,3</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; -9,56</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-19,4; -5,97</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>56,9%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>40,32%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>67,37%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>27,8%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 7,6</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 7,95</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 10,23</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 7,63</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 103,15</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 81,28</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>36,74; 112,32</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 70,2</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P24_8-Estudios-long_bre.xlsx
+++ b/data/long_bre/P24_8-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -742,7 +742,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -844,7 +844,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -950,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1052,7 +1052,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1154,7 +1154,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1362,7 +1362,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1464,7 +1464,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1672,7 +1672,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1774,7 +1774,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
